--- a/Time 2D/Time 2D.xlsx
+++ b/Time 2D/Time 2D.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C8209E-6497-4A0E-B03D-8962CB97C864}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7274B56-7142-4DCE-8E7D-C4AC2EF96A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -239,11 +239,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -379,7 +379,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -512,7 +524,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -630,6 +654,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1425024928"/>
         <c:axId val="1151186064"/>
@@ -1055,7 +1080,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -1188,7 +1225,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -1306,6 +1355,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1425024928"/>
         <c:axId val="1151186064"/>
@@ -1736,7 +1786,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -1869,7 +1931,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -1987,6 +2061,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1425024928"/>
         <c:axId val="1151186064"/>
@@ -2417,7 +2492,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -2550,7 +2637,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -2668,6 +2767,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1425024928"/>
         <c:axId val="1151186064"/>
@@ -5206,15 +5306,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>204008</xdr:colOff>
+      <xdr:colOff>204007</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>151359</xdr:rowOff>
+      <xdr:rowOff>151358</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>117608</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>149177</xdr:rowOff>
+      <xdr:colOff>117607</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>131858</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5225,7 +5325,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5242,15 +5344,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>202275</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114298</xdr:rowOff>
+      <xdr:colOff>204195</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>130947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>115875</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>112116</xdr:rowOff>
+      <xdr:colOff>117795</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>111446</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5280,15 +5382,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>290946</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>16625</xdr:rowOff>
+      <xdr:colOff>278778</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>140464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>204546</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14443</xdr:rowOff>
+      <xdr:colOff>192378</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>120964</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5318,15 +5420,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>324889</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85204</xdr:rowOff>
+      <xdr:colOff>280450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>131822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>238489</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>83022</xdr:rowOff>
+      <xdr:colOff>194050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>112321</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5621,8 +5723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6542,38 +6644,38 @@
         <v>1</v>
       </c>
       <c r="B33" s="16"/>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="17"/>
-      <c r="C34" s="20">
+      <c r="C34" s="19">
         <v>500</v>
       </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19">
         <v>1000</v>
       </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19">
         <v>1500</v>
       </c>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20">
+      <c r="H34" s="19"/>
+      <c r="I34" s="19">
         <v>2000</v>
       </c>
-      <c r="J34" s="20"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
@@ -6681,21 +6783,17 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
@@ -6709,6 +6807,10 @@
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A3:A12"/>

--- a/Time 2D/Time 2D.xlsx
+++ b/Time 2D/Time 2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7274B56-7142-4DCE-8E7D-C4AC2EF96A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299C7E39-2163-45F6-9D7F-FF15493C1962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,20 +217,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,11 +233,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5313,8 +5313,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>117607</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>131858</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165476</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5345,14 +5345,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>204195</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>130947</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130949</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>117795</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>111446</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145066</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5389,8 +5389,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>192378</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>120964</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>154582</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5421,14 +5421,14 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>280450</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>131822</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>131824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>194050</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>112321</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145941</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5724,7 +5724,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+      <selection activeCell="AF11" sqref="AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5736,27 +5736,27 @@
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="3">
         <v>500</v>
       </c>
@@ -5783,7 +5783,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
@@ -5815,7 +5815,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -5845,7 +5845,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -5875,7 +5875,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -5905,7 +5905,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -5936,7 +5936,7 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -5966,7 +5966,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -5996,7 +5996,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -6026,7 +6026,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -6056,7 +6056,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -6086,7 +6086,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
@@ -6118,7 +6118,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="2">
         <v>2</v>
       </c>
@@ -6148,7 +6148,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="2">
         <v>3</v>
       </c>
@@ -6178,7 +6178,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2">
         <v>4</v>
       </c>
@@ -6208,7 +6208,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="2">
         <v>5</v>
       </c>
@@ -6238,7 +6238,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="2">
         <v>6</v>
       </c>
@@ -6268,7 +6268,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="2">
         <v>7</v>
       </c>
@@ -6298,7 +6298,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="2">
         <v>8</v>
       </c>
@@ -6328,7 +6328,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="2">
         <v>9</v>
       </c>
@@ -6358,7 +6358,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="2">
         <v>10</v>
       </c>
@@ -6388,54 +6388,54 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="16"/>
       <c r="C26" s="3">
         <v>500</v>
       </c>
@@ -6462,10 +6462,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="4">
         <f>AVERAGE(C3:C12)</f>
         <v>0.44580000000000003</v>
@@ -6500,10 +6500,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="4">
         <f>AVERAGE(C13:C22)</f>
         <v>0.71479999999999999</v>
@@ -6538,10 +6538,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="8">
         <f>SQRT(C27)</f>
         <v>0.66768255930494402</v>
@@ -6576,10 +6576,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="8">
         <f>SQRT(C28)</f>
         <v>0.84545845551393006</v>
@@ -6614,188 +6614,189 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="15"/>
+      <c r="C33" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="19">
+      <c r="B34" s="16"/>
+      <c r="C34" s="12">
         <v>500</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12">
         <v>1000</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12">
         <v>1500</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19">
+      <c r="H34" s="12"/>
+      <c r="I34" s="12">
         <v>2000</v>
       </c>
-      <c r="J34" s="19"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="18">
+      <c r="B35" s="17"/>
+      <c r="C35" s="11">
         <f>C27/G27</f>
         <v>7.3807947019867539</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11">
         <f>D27/H27</f>
         <v>8.4435299497027874</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11">
         <f>E27/I27</f>
         <v>9.2601569713758085</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18">
+      <c r="H35" s="11"/>
+      <c r="I35" s="11">
         <f>F27/J27</f>
         <v>10.191562634524322</v>
       </c>
-      <c r="J35" s="18"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="18">
+      <c r="B36" s="17"/>
+      <c r="C36" s="11">
         <f t="shared" ref="C36:C37" si="3">C28/G28</f>
         <v>12.366782006920413</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11">
         <f t="shared" ref="E36:E37" si="4">D28/H28</f>
         <v>13.394957983193276</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11">
         <f t="shared" ref="G36:G38" si="5">E28/I28</f>
         <v>15.170294187993299</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18">
+      <c r="H36" s="11"/>
+      <c r="I36" s="11">
         <f t="shared" ref="I36:I38" si="6">F28/J28</f>
         <v>16.921976201235125</v>
       </c>
-      <c r="J36" s="18"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="18">
+      <c r="B37" s="18"/>
+      <c r="C37" s="11">
         <f t="shared" si="3"/>
         <v>2.7167618044257682</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11">
         <f t="shared" si="4"/>
         <v>2.9057752751551158</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11">
         <f t="shared" si="5"/>
         <v>3.0430506028286497</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11">
         <f t="shared" si="6"/>
         <v>3.1924226904538067</v>
       </c>
-      <c r="J37" s="18"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="18">
+      <c r="B38" s="18"/>
+      <c r="C38" s="11">
         <f>C30/G30</f>
         <v>3.5166435712082644</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11">
         <f>D30/H30</f>
         <v>3.6599122917350462</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11">
         <f t="shared" si="5"/>
         <v>3.8949061847486517</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18">
+      <c r="H38" s="11"/>
+      <c r="I38" s="11">
         <f t="shared" si="6"/>
         <v>4.1136329687072388</v>
       </c>
-      <c r="J38" s="18"/>
+      <c r="J38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:J24"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="A31:J32"/>
     <mergeCell ref="A33:B33"/>
@@ -6811,20 +6812,19 @@
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:J24"/>
-    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 2D/Time 2D.xlsx
+++ b/Time 2D/Time 2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299C7E39-2163-45F6-9D7F-FF15493C1962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6C2C47-8D6B-4E67-AD7E-785E409BE1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,15 +217,20 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,16 +238,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,16 +458,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,16 +479,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.44580000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8466</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0114999999999998</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1025000000000009</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -603,16 +603,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -624,16 +624,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.0400000000000009E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21870000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43319999999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.69690000000000007</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,16 +1159,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,16 +1180,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.71479999999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8692000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3426999999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.234500000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,16 +1304,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,16 +1325,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.7800000000000004E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21420000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41810000000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66390000000000005</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,16 +1865,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,16 +1886,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.66768255930494402</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3588966112254457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.002872936558882</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6650515942472861</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2010,16 +2010,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2031,16 +2031,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.24576411454889016</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4676537180435969</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65817930687617332</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.83480536653761406</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,16 +2571,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,16 +2592,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.84545845551393006</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6938713056191725</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5184717588251808</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3517905662496279</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2716,16 +2716,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2737,16 +2737,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.24041630560342617</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4628174586162454</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64660652641308847</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81480058910140707</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5723,8 +5723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5736,1067 +5736,745 @@
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G2" s="1">
         <v>1000</v>
       </c>
-      <c r="E2" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="H2" s="1">
         <v>2000</v>
       </c>
-      <c r="G2" s="1">
-        <v>500</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1000</v>
-      </c>
       <c r="I2" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J2" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>0.497</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2.452</v>
-      </c>
-      <c r="E3" s="4">
-        <v>4.2409999999999997</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7.3140000000000001</v>
-      </c>
-      <c r="G3" s="6">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.214</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.432</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.69899999999999995</v>
-      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1.7549999999999999</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3.9940000000000002</v>
-      </c>
-      <c r="F4" s="4">
-        <v>6.9649999999999999</v>
-      </c>
-      <c r="G4" s="6">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.223</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.43</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.69599999999999995</v>
-      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.863</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3.9289999999999998</v>
-      </c>
-      <c r="F5" s="4">
-        <v>7.1239999999999997</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.223</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.439</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.7</v>
-      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1.77</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3.9260000000000002</v>
-      </c>
-      <c r="F6" s="4">
-        <v>6.8840000000000003</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5.8999999999999997E-2</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.219</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.435</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.69899999999999995</v>
-      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.435</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1.746</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3.8759999999999999</v>
-      </c>
-      <c r="F7" s="4">
-        <v>6.9580000000000002</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.217</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.43</v>
-      </c>
-      <c r="J7" s="6">
-        <v>0.69299999999999995</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.443</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1.861</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3.96</v>
-      </c>
-      <c r="F8" s="4">
-        <v>6.9450000000000003</v>
-      </c>
-      <c r="G8" s="6">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.216</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.433</v>
-      </c>
-      <c r="J8" s="6">
-        <v>0.69799999999999995</v>
-      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1.724</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4.4409999999999998</v>
-      </c>
-      <c r="F9" s="4">
-        <v>6.9539999999999997</v>
-      </c>
-      <c r="G9" s="6">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.437</v>
-      </c>
-      <c r="J9" s="6">
-        <v>0.69699999999999995</v>
-      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1.8180000000000001</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3.9359999999999999</v>
-      </c>
-      <c r="F10" s="4">
-        <v>7.0460000000000003</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.223</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.433</v>
-      </c>
-      <c r="J10" s="6">
-        <v>0.7</v>
-      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
-        <v>0.433</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3.8839999999999999</v>
-      </c>
-      <c r="F11" s="4">
-        <v>7.0789999999999997</v>
-      </c>
-      <c r="G11" s="6">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.22</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.434</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0.69499999999999995</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
-        <v>0.437</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.712</v>
-      </c>
-      <c r="E12" s="4">
-        <v>3.9279999999999999</v>
-      </c>
-      <c r="F12" s="4">
-        <v>7.7560000000000002</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.42899999999999999</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0.69199999999999995</v>
-      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3.1469999999999998</v>
-      </c>
-      <c r="E13" s="4">
-        <v>6.9930000000000003</v>
-      </c>
-      <c r="F13" s="4">
-        <v>11.39</v>
-      </c>
-      <c r="G13" s="6">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="J13" s="6">
-        <v>0.66200000000000003</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="D14" s="4">
-        <v>2.7919999999999998</v>
-      </c>
-      <c r="E14" s="4">
-        <v>6.2149999999999999</v>
-      </c>
-      <c r="F14" s="4">
-        <v>11.128</v>
-      </c>
-      <c r="G14" s="6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0.66100000000000003</v>
-      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="4">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="D15" s="4">
-        <v>2.7930000000000001</v>
-      </c>
-      <c r="E15" s="4">
-        <v>6.3019999999999996</v>
-      </c>
-      <c r="F15" s="4">
-        <v>11.349</v>
-      </c>
-      <c r="G15" s="6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.214</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.41599999999999998</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0.67</v>
-      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="4">
-        <v>0.68799999999999994</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2.79</v>
-      </c>
-      <c r="E16" s="4">
-        <v>6.3159999999999998</v>
-      </c>
-      <c r="F16" s="4">
-        <v>11.606999999999999</v>
-      </c>
-      <c r="G16" s="6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.216</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.66100000000000003</v>
-      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2">
         <v>5</v>
       </c>
-      <c r="C17" s="4">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="D17" s="4">
-        <v>2.8359999999999999</v>
-      </c>
-      <c r="E17" s="4">
-        <v>6.2249999999999996</v>
-      </c>
-      <c r="F17" s="4">
-        <v>11.439</v>
-      </c>
-      <c r="G17" s="6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0.65900000000000003</v>
-      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="4">
-        <v>0.73099999999999998</v>
-      </c>
-      <c r="D18" s="4">
-        <v>3.1589999999999998</v>
-      </c>
-      <c r="E18" s="4">
-        <v>6.3010000000000002</v>
-      </c>
-      <c r="F18" s="4">
-        <v>11.044</v>
-      </c>
-      <c r="G18" s="6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.217</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0.66800000000000004</v>
-      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2">
         <v>7</v>
       </c>
-      <c r="C19" s="4">
-        <v>0.70199999999999996</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2.802</v>
-      </c>
-      <c r="E19" s="4">
-        <v>6.1959999999999997</v>
-      </c>
-      <c r="F19" s="4">
-        <v>11.084</v>
-      </c>
-      <c r="G19" s="6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0.214</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.41399999999999998</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0.66</v>
-      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="2">
         <v>8</v>
       </c>
-      <c r="C20" s="4">
-        <v>0.70099999999999996</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2.758</v>
-      </c>
-      <c r="E20" s="4">
-        <v>6.3150000000000004</v>
-      </c>
-      <c r="F20" s="4">
-        <v>11.096</v>
-      </c>
-      <c r="G20" s="6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.217</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0.41899999999999998</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0.66700000000000004</v>
-      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2">
         <v>9</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2.8119999999999998</v>
-      </c>
-      <c r="E21" s="4">
-        <v>6.2779999999999996</v>
-      </c>
-      <c r="F21" s="4">
-        <v>11.036</v>
-      </c>
-      <c r="G21" s="6">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.216</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0.66800000000000004</v>
-      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="2">
         <v>10</v>
       </c>
-      <c r="C22" s="4">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2.8029999999999999</v>
-      </c>
-      <c r="E22" s="4">
-        <v>6.2859999999999996</v>
-      </c>
-      <c r="F22" s="4">
-        <v>11.172000000000001</v>
-      </c>
-      <c r="G22" s="6">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.216</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0.66300000000000003</v>
-      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G26" s="1">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="1">
         <v>2000</v>
       </c>
-      <c r="G26" s="1">
-        <v>500</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1000</v>
-      </c>
       <c r="I26" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J26" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="4">
+      <c r="B27" s="12"/>
+      <c r="C27" s="4" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D27" s="4" t="e">
         <f>AVERAGE(C3:C12)</f>
-        <v>0.44580000000000003</v>
-      </c>
-      <c r="D27" s="4">
-        <f t="shared" ref="D27:J27" si="0">AVERAGE(D3:D12)</f>
-        <v>1.8466</v>
-      </c>
-      <c r="E27" s="4">
-        <f t="shared" si="0"/>
-        <v>4.0114999999999998</v>
-      </c>
-      <c r="F27" s="4">
-        <f t="shared" si="0"/>
-        <v>7.1025000000000009</v>
-      </c>
-      <c r="G27" s="6">
-        <f t="shared" si="0"/>
-        <v>6.0400000000000009E-2</v>
-      </c>
-      <c r="H27" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="4" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F27" s="4" t="e">
+        <f>AVERAGE(D3:D12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="6" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="6" t="e">
+        <f>AVERAGE(G3:G12)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="6" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J27" s="6" t="e">
         <f>AVERAGE(H3:H12)</f>
-        <v>0.21870000000000003</v>
-      </c>
-      <c r="I27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.43319999999999997</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="0"/>
-        <v>0.69690000000000007</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="4">
+      <c r="B28" s="12"/>
+      <c r="C28" s="4" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D28" s="4" t="e">
         <f>AVERAGE(C13:C22)</f>
-        <v>0.71479999999999999</v>
-      </c>
-      <c r="D28" s="4">
-        <f t="shared" ref="D28:J28" si="1">AVERAGE(D13:D22)</f>
-        <v>2.8692000000000002</v>
-      </c>
-      <c r="E28" s="4">
-        <f t="shared" si="1"/>
-        <v>6.3426999999999989</v>
-      </c>
-      <c r="F28" s="4">
-        <f t="shared" si="1"/>
-        <v>11.234500000000001</v>
-      </c>
-      <c r="G28" s="6">
-        <f t="shared" si="1"/>
-        <v>5.7800000000000004E-2</v>
-      </c>
-      <c r="H28" s="6">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E28" s="4" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F28" s="4" t="e">
+        <f>AVERAGE(D13:D22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="6" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="6" t="e">
+        <f>AVERAGE(G13:G22)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I28" s="6" t="e">
+        <f>AVERAGE(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J28" s="6" t="e">
         <f>AVERAGE(H13:H22)</f>
-        <v>0.21420000000000003</v>
-      </c>
-      <c r="I28" s="6">
-        <f t="shared" si="1"/>
-        <v>0.41810000000000003</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="1"/>
-        <v>0.66390000000000005</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="8">
+      <c r="B29" s="11"/>
+      <c r="C29" s="8" t="e">
         <f>SQRT(C27)</f>
-        <v>0.66768255930494402</v>
-      </c>
-      <c r="D29" s="8">
-        <f t="shared" ref="D29:J30" si="2">SQRT(D27)</f>
-        <v>1.3588966112254457</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" si="2"/>
-        <v>2.002872936558882</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="2"/>
-        <v>2.6650515942472861</v>
-      </c>
-      <c r="G29" s="7">
-        <f t="shared" si="2"/>
-        <v>0.24576411454889016</v>
-      </c>
-      <c r="H29" s="7">
-        <f t="shared" si="2"/>
-        <v>0.4676537180435969</v>
-      </c>
-      <c r="I29" s="7">
-        <f t="shared" si="2"/>
-        <v>0.65817930687617332</v>
-      </c>
-      <c r="J29" s="7">
-        <f t="shared" si="2"/>
-        <v>0.83480536653761406</v>
+        <v>#REF!</v>
+      </c>
+      <c r="D29" s="8" t="e">
+        <f t="shared" ref="D29:J30" si="0">SQRT(D27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F29" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I29" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J29" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="8">
+      <c r="B30" s="11"/>
+      <c r="C30" s="8" t="e">
         <f>SQRT(C28)</f>
-        <v>0.84545845551393006</v>
-      </c>
-      <c r="D30" s="8">
-        <f t="shared" si="2"/>
-        <v>1.6938713056191725</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" si="2"/>
-        <v>2.5184717588251808</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" si="2"/>
-        <v>3.3517905662496279</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="2"/>
-        <v>0.24041630560342617</v>
-      </c>
-      <c r="H30" s="7">
-        <f t="shared" si="2"/>
-        <v>0.4628174586162454</v>
-      </c>
-      <c r="I30" s="7">
-        <f t="shared" si="2"/>
-        <v>0.64660652641308847</v>
-      </c>
-      <c r="J30" s="7">
-        <f t="shared" si="2"/>
-        <v>0.81480058910140707</v>
+        <v>#REF!</v>
+      </c>
+      <c r="D30" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E30" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F30" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G30" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H30" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I30" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="J30" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="13" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="12">
+      <c r="B34" s="17"/>
+      <c r="C34" s="19">
         <v>500</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19">
         <v>1000</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19">
         <v>1500</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12">
+      <c r="H34" s="19"/>
+      <c r="I34" s="19">
         <v>2000</v>
       </c>
-      <c r="J34" s="12"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="11">
+      <c r="B35" s="12"/>
+      <c r="C35" s="18" t="e">
         <f>C27/G27</f>
-        <v>7.3807947019867539</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11">
+        <v>#REF!</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18" t="e">
         <f>D27/H27</f>
-        <v>8.4435299497027874</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18" t="e">
         <f>E27/I27</f>
-        <v>9.2601569713758085</v>
-      </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11">
+        <v>#REF!</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18" t="e">
         <f>F27/J27</f>
-        <v>10.191562634524322</v>
-      </c>
-      <c r="J35" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="11">
-        <f t="shared" ref="C36:C37" si="3">C28/G28</f>
-        <v>12.366782006920413</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11">
-        <f t="shared" ref="E36:E37" si="4">D28/H28</f>
-        <v>13.394957983193276</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11">
-        <f t="shared" ref="G36:G38" si="5">E28/I28</f>
-        <v>15.170294187993299</v>
-      </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11">
-        <f t="shared" ref="I36:I38" si="6">F28/J28</f>
-        <v>16.921976201235125</v>
-      </c>
-      <c r="J36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="18" t="e">
+        <f t="shared" ref="C36:C37" si="1">C28/G28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18" t="e">
+        <f t="shared" ref="E36:E37" si="2">D28/H28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18" t="e">
+        <f t="shared" ref="G36:G38" si="3">E28/I28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18" t="e">
+        <f t="shared" ref="I36:I38" si="4">F28/J28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="11">
+      <c r="B37" s="11"/>
+      <c r="C37" s="18" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18" t="e">
         <f t="shared" si="3"/>
-        <v>2.7167618044257682</v>
-      </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11">
+        <v>#REF!</v>
+      </c>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18" t="e">
         <f t="shared" si="4"/>
-        <v>2.9057752751551158</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11">
-        <f t="shared" si="5"/>
-        <v>3.0430506028286497</v>
-      </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11">
-        <f t="shared" si="6"/>
-        <v>3.1924226904538067</v>
-      </c>
-      <c r="J37" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="11">
+      <c r="B38" s="11"/>
+      <c r="C38" s="18" t="e">
         <f>C30/G30</f>
-        <v>3.5166435712082644</v>
-      </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11">
+        <v>#REF!</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18" t="e">
         <f>D30/H30</f>
-        <v>3.6599122917350462</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11">
-        <f t="shared" si="5"/>
-        <v>3.8949061847486517</v>
-      </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11">
-        <f t="shared" si="6"/>
-        <v>4.1136329687072388</v>
-      </c>
-      <c r="J38" s="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:J24"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="A31:J32"/>
     <mergeCell ref="A33:B33"/>
@@ -6813,18 +6491,20 @@
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:J24"/>
+    <mergeCell ref="A13:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 2D/Time 2D.xlsx
+++ b/Time 2D/Time 2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6C2C47-8D6B-4E67-AD7E-785E409BE1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85CB645-BED1-499C-BCA4-5E551828A773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
   <si>
     <t>Попытка</t>
   </si>
@@ -67,6 +67,72 @@
   </si>
   <si>
     <t>Время CPU / время GPU</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.080</t>
+  </si>
+  <si>
+    <t>0.081</t>
+  </si>
+  <si>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.313</t>
+  </si>
+  <si>
+    <t>0.317</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>1.278</t>
+  </si>
+  <si>
+    <t>1.275</t>
+  </si>
+  <si>
+    <t>1.239</t>
+  </si>
+  <si>
+    <t>1.249</t>
+  </si>
+  <si>
+    <t>1.246</t>
+  </si>
+  <si>
+    <t>1.244</t>
+  </si>
+  <si>
+    <t>1.250</t>
   </si>
 </sst>
 </file>
@@ -217,20 +283,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,11 +296,19 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5723,8 +5789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5739,18 +5805,18 @@
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -5783,72 +5849,112 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -5856,77 +5962,117 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
@@ -5942,7 +6088,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="2">
         <v>2</v>
       </c>
@@ -5956,7 +6102,7 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="2">
         <v>3</v>
       </c>
@@ -5970,7 +6116,7 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="2">
         <v>4</v>
       </c>
@@ -5984,7 +6130,7 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="2">
         <v>5</v>
       </c>
@@ -5998,7 +6144,7 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="2">
         <v>6</v>
       </c>
@@ -6012,7 +6158,7 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2">
         <v>7</v>
       </c>
@@ -6026,7 +6172,7 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2">
         <v>8</v>
       </c>
@@ -6040,7 +6186,7 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="2">
         <v>9</v>
       </c>
@@ -6054,7 +6200,7 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="2">
         <v>10</v>
       </c>
@@ -6094,28 +6240,28 @@
       <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="3">
         <v>1000</v>
       </c>
@@ -6142,10 +6288,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="12"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
@@ -6180,10 +6326,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="12"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="4" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
@@ -6218,10 +6364,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="8" t="e">
         <f>SQRT(C27)</f>
         <v>#REF!</v>
@@ -6256,10 +6402,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="8" t="e">
         <f>SQRT(C28)</f>
         <v>#REF!</v>
@@ -6320,159 +6466,165 @@
       <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="19">
+      <c r="B34" s="15"/>
+      <c r="C34" s="12">
         <v>500</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12">
         <v>1000</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12">
         <v>1500</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19">
+      <c r="H34" s="12"/>
+      <c r="I34" s="12">
         <v>2000</v>
       </c>
-      <c r="J34" s="19"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="18" t="e">
+      <c r="B35" s="16"/>
+      <c r="C35" s="11" t="e">
         <f>C27/G27</f>
         <v>#REF!</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18" t="e">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11" t="e">
         <f>D27/H27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18" t="e">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11" t="e">
         <f>E27/I27</f>
         <v>#REF!</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18" t="e">
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="e">
         <f>F27/J27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="18"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="18" t="e">
+      <c r="B36" s="16"/>
+      <c r="C36" s="11" t="e">
         <f t="shared" ref="C36:C37" si="1">C28/G28</f>
         <v>#REF!</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18" t="e">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="e">
         <f t="shared" ref="E36:E37" si="2">D28/H28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18" t="e">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11" t="e">
         <f t="shared" ref="G36:G38" si="3">E28/I28</f>
         <v>#REF!</v>
       </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18" t="e">
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="e">
         <f t="shared" ref="I36:I38" si="4">F28/J28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="18"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="18" t="e">
+      <c r="B37" s="17"/>
+      <c r="C37" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18" t="e">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18" t="e">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18" t="e">
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="18"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="18" t="e">
+      <c r="B38" s="17"/>
+      <c r="C38" s="11" t="e">
         <f>C30/G30</f>
         <v>#REF!</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18" t="e">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11" t="e">
         <f>D30/H30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18" t="e">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18" t="e">
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="18"/>
+      <c r="J38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:J24"/>
+    <mergeCell ref="A13:A22"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
@@ -6489,22 +6641,16 @@
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:J24"/>
-    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 2D/Time 2D.xlsx
+++ b/Time 2D/Time 2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85CB645-BED1-499C-BCA4-5E551828A773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CCC5C6-3473-4713-93A3-18C1B484CBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>Попытка</t>
-  </si>
-  <si>
-    <t>200 итераций</t>
   </si>
   <si>
     <t>Сторона (пикс)</t>
@@ -69,70 +66,40 @@
     <t>Время CPU / время GPU</t>
   </si>
   <si>
-    <t>0.079</t>
+    <t>500 итераций</t>
   </si>
   <si>
-    <t>0.083</t>
+    <t>0.005</t>
   </si>
   <si>
-    <t>0.080</t>
+    <t>0.006</t>
   </si>
   <si>
-    <t>0.081</t>
+    <t>0.101</t>
   </si>
   <si>
-    <t>0.314</t>
+    <t>0.102</t>
   </si>
   <si>
-    <t>0.316</t>
+    <t>0.103</t>
   </si>
   <si>
-    <t>0.313</t>
+    <t>0.104</t>
   </si>
   <si>
-    <t>0.317</t>
+    <t>0.401</t>
   </si>
   <si>
-    <t>0.315</t>
+    <t>0.406</t>
   </si>
   <si>
-    <t>0.312</t>
+    <t>0.403</t>
   </si>
   <si>
-    <t>0.701</t>
+    <t>0.402</t>
   </si>
   <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.702</t>
-  </si>
-  <si>
-    <t>0.712</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>1.278</t>
-  </si>
-  <si>
-    <t>1.275</t>
-  </si>
-  <si>
-    <t>1.239</t>
-  </si>
-  <si>
-    <t>1.249</t>
-  </si>
-  <si>
-    <t>1.246</t>
-  </si>
-  <si>
-    <t>1.244</t>
-  </si>
-  <si>
-    <t>1.250</t>
+    <t>0.404</t>
   </si>
 </sst>
 </file>
@@ -283,22 +250,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -311,6 +262,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5790,7 +5757,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5800,29 +5767,29 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
       <c r="C2" s="3">
         <v>1000</v>
       </c>
@@ -5849,231 +5816,211 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>5</v>
+      <c r="A3" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>6</v>
+      <c r="A13" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -6088,7 +6035,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2">
         <v>2</v>
       </c>
@@ -6102,7 +6049,7 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2">
         <v>3</v>
       </c>
@@ -6116,7 +6063,7 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2">
         <v>4</v>
       </c>
@@ -6130,7 +6077,7 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2">
         <v>5</v>
       </c>
@@ -6144,7 +6091,7 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2">
         <v>6</v>
       </c>
@@ -6158,7 +6105,7 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2">
         <v>7</v>
       </c>
@@ -6172,7 +6119,7 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2">
         <v>8</v>
       </c>
@@ -6186,7 +6133,7 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2">
         <v>9</v>
       </c>
@@ -6200,7 +6147,7 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2">
         <v>10</v>
       </c>
@@ -6214,54 +6161,54 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="A23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="19" t="s">
+      <c r="A25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="15"/>
+      <c r="A26" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="17"/>
       <c r="C26" s="3">
         <v>1000</v>
       </c>
@@ -6288,10 +6235,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="16"/>
+      <c r="A27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="15"/>
       <c r="C27" s="4" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
@@ -6326,10 +6273,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="16"/>
+      <c r="A28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="15"/>
       <c r="C28" s="4" t="e">
         <f>AVERAGE(#REF!)</f>
         <v>#REF!</v>
@@ -6364,10 +6311,10 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="17"/>
+      <c r="A29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="11"/>
       <c r="C29" s="8" t="e">
         <f>SQRT(C27)</f>
         <v>#REF!</v>
@@ -6402,10 +6349,10 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="17"/>
+      <c r="A30" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="11"/>
       <c r="C30" s="8" t="e">
         <f>SQRT(C28)</f>
         <v>#REF!</v>
@@ -6440,175 +6387,201 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="A31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="18" t="s">
+      <c r="A33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="12">
+      <c r="A34" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="19">
         <v>500</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19">
         <v>1000</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19">
         <v>1500</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12">
+      <c r="H34" s="19"/>
+      <c r="I34" s="19">
         <v>2000</v>
       </c>
-      <c r="J34" s="12"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="11" t="e">
+      <c r="A35" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="20" t="e">
         <f>C27/G27</f>
         <v>#REF!</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11" t="e">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="e">
         <f>D27/H27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11" t="e">
+      <c r="F35" s="20"/>
+      <c r="G35" s="20" t="e">
         <f>E27/I27</f>
         <v>#REF!</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="e">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20" t="e">
         <f>F27/J27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="11"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="11" t="e">
+      <c r="A36" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="20" t="e">
         <f t="shared" ref="C36:C37" si="1">C28/G28</f>
         <v>#REF!</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="e">
+      <c r="D36" s="20"/>
+      <c r="E36" s="20" t="e">
         <f t="shared" ref="E36:E37" si="2">D28/H28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11" t="e">
+      <c r="F36" s="20"/>
+      <c r="G36" s="20" t="e">
         <f t="shared" ref="G36:G38" si="3">E28/I28</f>
         <v>#REF!</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="e">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20" t="e">
         <f t="shared" ref="I36:I38" si="4">F28/J28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="11"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="11" t="e">
+      <c r="A37" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#REF!</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="e">
+      <c r="D37" s="20"/>
+      <c r="E37" s="20" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11" t="e">
+      <c r="F37" s="20"/>
+      <c r="G37" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="e">
+      <c r="H37" s="20"/>
+      <c r="I37" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J37" s="11"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="11" t="e">
+      <c r="A38" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="20" t="e">
         <f>C30/G30</f>
         <v>#REF!</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11" t="e">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20" t="e">
         <f>D30/H30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11" t="e">
+      <c r="F38" s="20"/>
+      <c r="G38" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#REF!</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="e">
+      <c r="H38" s="20"/>
+      <c r="I38" s="20" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J38" s="11"/>
+      <c r="J38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A31:J32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C33:J33"/>
     <mergeCell ref="C1:F1"/>
@@ -6625,32 +6598,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A23:J24"/>
     <mergeCell ref="A13:A22"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A31:J32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 2D/Time 2D.xlsx
+++ b/Time 2D/Time 2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CCC5C6-3473-4713-93A3-18C1B484CBDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05324797-8D19-4BEA-AD6F-0F5EA2E12BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Попытка</t>
   </si>
@@ -67,39 +67,6 @@
   </si>
   <si>
     <t>500 итераций</t>
-  </si>
-  <si>
-    <t>0.005</t>
-  </si>
-  <si>
-    <t>0.006</t>
-  </si>
-  <si>
-    <t>0.101</t>
-  </si>
-  <si>
-    <t>0.102</t>
-  </si>
-  <si>
-    <t>0.103</t>
-  </si>
-  <si>
-    <t>0.104</t>
-  </si>
-  <si>
-    <t>0.401</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.403</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.404</t>
   </si>
 </sst>
 </file>
@@ -250,6 +217,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,22 +245,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,18 +478,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -656,18 +611,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1212,18 +1155,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1357,18 +1288,6 @@
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1918,18 +1837,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2063,18 +1970,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2624,18 +2519,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2769,18 +2652,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5756,8 +5627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5769,27 +5640,27 @@
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="3">
         <v>1000</v>
       </c>
@@ -5816,210 +5687,310 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="C3" s="4">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J3" s="6">
+        <v>6.2E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="C4" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="C5" s="4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.591</v>
+      </c>
+      <c r="G5" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <v>6.3E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="C6" s="4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>6.2E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="C7" s="4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.599</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>6.2E-2</v>
+      </c>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="C8" s="4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.595</v>
+      </c>
+      <c r="G8" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J8" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="C9" s="4">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.585</v>
+      </c>
+      <c r="G9" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="C10" s="4">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1.629</v>
+      </c>
+      <c r="G10" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I10" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J10" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="C11" s="4">
+        <v>0.104</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1.621</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="C12" s="4">
+        <v>0.104</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>5.8000000000000003E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
@@ -6035,7 +6006,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="2">
         <v>2</v>
       </c>
@@ -6049,7 +6020,7 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="2">
         <v>3</v>
       </c>
@@ -6063,7 +6034,7 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="2">
         <v>4</v>
       </c>
@@ -6077,7 +6048,7 @@
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="2">
         <v>5</v>
       </c>
@@ -6091,7 +6062,7 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="2">
         <v>6</v>
       </c>
@@ -6105,7 +6076,7 @@
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2">
         <v>7</v>
       </c>
@@ -6119,7 +6090,7 @@
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2">
         <v>8</v>
       </c>
@@ -6133,7 +6104,7 @@
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="2">
         <v>9</v>
       </c>
@@ -6147,7 +6118,7 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="2">
         <v>10</v>
       </c>
@@ -6161,54 +6132,54 @@
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="3">
         <v>1000</v>
       </c>
@@ -6235,337 +6206,199 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="4" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="4" t="e">
-        <f>AVERAGE(C3:C12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="4" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F27" s="4" t="e">
-        <f>AVERAGE(D3:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="6" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="6" t="e">
-        <f>AVERAGE(G3:G12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="6" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J27" s="6" t="e">
-        <f>AVERAGE(H3:H12)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="4" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D28" s="4" t="e">
-        <f>AVERAGE(C13:C22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E28" s="4" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F28" s="4" t="e">
-        <f>AVERAGE(D13:D22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="6" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="6" t="e">
-        <f>AVERAGE(G13:G22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I28" s="6" t="e">
-        <f>AVERAGE(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J28" s="6" t="e">
-        <f>AVERAGE(H13:H22)</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="8" t="e">
-        <f>SQRT(C27)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D29" s="8" t="e">
-        <f t="shared" ref="D29:J30" si="0">SQRT(D27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E29" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F29" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I29" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J29" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="8" t="e">
-        <f>SQRT(C28)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D30" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E30" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F30" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H30" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I30" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="J30" s="7" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="19">
-        <v>500</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19">
+      <c r="B34" s="15"/>
+      <c r="C34" s="12">
         <v>1000</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19">
-        <v>1500</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12">
         <v>2000</v>
       </c>
-      <c r="J34" s="19"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12">
+        <v>3000</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12">
+        <v>4000</v>
+      </c>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="20" t="e">
-        <f>C27/G27</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20" t="e">
-        <f>D27/H27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20" t="e">
-        <f>E27/I27</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20" t="e">
-        <f>F27/J27</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="20"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="20" t="e">
-        <f t="shared" ref="C36:C37" si="1">C28/G28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20" t="e">
-        <f t="shared" ref="E36:E37" si="2">D28/H28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20" t="e">
-        <f t="shared" ref="G36:G38" si="3">E28/I28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20" t="e">
-        <f t="shared" ref="I36:I38" si="4">F28/J28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J36" s="20"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="20" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J37" s="20"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="20" t="e">
-        <f>C30/G30</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20" t="e">
-        <f>D30/H30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J38" s="20"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:J24"/>
+    <mergeCell ref="A13:A22"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
@@ -6582,22 +6415,16 @@
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:J24"/>
-    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 2D/Time 2D.xlsx
+++ b/Time 2D/Time 2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05324797-8D19-4BEA-AD6F-0F5EA2E12BB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC82457-C87A-4786-A8A5-3D7151BAF623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,22 +217,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,6 +229,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5627,8 +5627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5640,27 +5640,27 @@
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="20" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="3">
         <v>1000</v>
       </c>
@@ -5687,7 +5687,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
@@ -5719,7 +5719,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -5749,7 +5749,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -5779,7 +5779,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -5809,7 +5809,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -5870,7 +5870,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -5900,7 +5900,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -5930,7 +5930,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -5960,7 +5960,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -5990,196 +5990,276 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="4">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2.6789999999999998</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4.7359999999999998</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="4">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2.669</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4.74</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="C15" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2.6680000000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4.7430000000000003</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="C16" s="4">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2.6739999999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.7380000000000004</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2">
         <v>5</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="4">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2.774</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.7380000000000004</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="C18" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4.7300000000000004</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2">
         <v>7</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="C19" s="4">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4.7389999999999999</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2">
         <v>8</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="C20" s="4">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2.6829999999999998</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4.74</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2">
         <v>9</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="C21" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2.67</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4.7480000000000002</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2">
         <v>10</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="C22" s="4">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4.7389999999999999</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20" t="s">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="3">
         <v>1000</v>
       </c>
@@ -6206,10 +6286,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -6220,10 +6300,10 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -6234,10 +6314,10 @@
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -6248,10 +6328,10 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -6262,127 +6342,153 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="16"/>
+      <c r="C33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="12">
+      <c r="B34" s="17"/>
+      <c r="C34" s="19">
         <v>1000</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19">
         <v>2000</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19">
         <v>3000</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12">
+      <c r="H34" s="19"/>
+      <c r="I34" s="19">
         <v>4000</v>
       </c>
-      <c r="J34" s="12"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="A31:J32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C33:J33"/>
     <mergeCell ref="C1:F1"/>
@@ -6399,32 +6505,6 @@
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A23:J24"/>
     <mergeCell ref="A13:A22"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="A31:J32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 2D/Time 2D.xlsx
+++ b/Time 2D/Time 2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC82457-C87A-4786-A8A5-3D7151BAF623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0C123E-C807-41D6-8D0D-4B0EFCA1F039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,6 +217,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -229,22 +245,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5627,8 +5627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5640,27 +5640,27 @@
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="3">
         <v>1000</v>
       </c>
@@ -5687,7 +5687,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
@@ -5719,7 +5719,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -5749,7 +5749,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -5779,7 +5779,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -5809,7 +5809,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -5840,7 +5840,7 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -5870,7 +5870,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -5900,7 +5900,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -5930,7 +5930,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -5960,7 +5960,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -5990,7 +5990,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2">
@@ -6008,13 +6008,21 @@
       <c r="F13" s="4">
         <v>4.7359999999999998</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="G13" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J13" s="6">
+        <v>6.6000000000000003E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="2">
         <v>2</v>
       </c>
@@ -6030,13 +6038,21 @@
       <c r="F14" s="4">
         <v>4.74</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="G14" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J14" s="6">
+        <v>6.0999999999999999E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="2">
         <v>3</v>
       </c>
@@ -6052,13 +6068,21 @@
       <c r="F15" s="4">
         <v>4.7430000000000003</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="G15" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>6.0999999999999999E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="2">
         <v>4</v>
       </c>
@@ -6074,13 +6098,21 @@
       <c r="F16" s="4">
         <v>4.7380000000000004</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="G16" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I16" s="6">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="2">
         <v>5</v>
       </c>
@@ -6096,13 +6128,21 @@
       <c r="F17" s="4">
         <v>4.7380000000000004</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="G17" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>6.0999999999999999E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="2">
         <v>6</v>
       </c>
@@ -6118,13 +6158,21 @@
       <c r="F18" s="4">
         <v>4.7300000000000004</v>
       </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="G18" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I18" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>6.0999999999999999E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="2">
         <v>7</v>
       </c>
@@ -6140,13 +6188,21 @@
       <c r="F19" s="4">
         <v>4.7389999999999999</v>
       </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="G19" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I19" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="2">
         <v>8</v>
       </c>
@@ -6162,13 +6218,21 @@
       <c r="F20" s="4">
         <v>4.74</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="G20" s="6">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I20" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="2">
         <v>9</v>
       </c>
@@ -6184,13 +6248,21 @@
       <c r="F21" s="4">
         <v>4.7480000000000002</v>
       </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="G21" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J21" s="6">
+        <v>6.0999999999999999E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="2">
         <v>10</v>
       </c>
@@ -6206,60 +6278,68 @@
       <c r="F22" s="4">
         <v>4.7389999999999999</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="G22" s="6">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I22" s="6">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J22" s="6">
+        <v>6.0999999999999999E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14" t="s">
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="3">
         <v>1000</v>
       </c>
@@ -6286,10 +6366,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="16"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -6300,10 +6380,10 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="15"/>
+      <c r="B28" s="16"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -6314,10 +6394,10 @@
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -6328,10 +6408,10 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -6342,137 +6422,143 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="14"/>
+      <c r="C33" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="19">
+      <c r="B34" s="15"/>
+      <c r="C34" s="12">
         <v>1000</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12">
         <v>2000</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19">
+      <c r="F34" s="12"/>
+      <c r="G34" s="12">
         <v>3000</v>
       </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19">
+      <c r="H34" s="12"/>
+      <c r="I34" s="12">
         <v>4000</v>
       </c>
-      <c r="J34" s="19"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:J24"/>
+    <mergeCell ref="A13:A22"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
@@ -6489,22 +6575,16 @@
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:J24"/>
-    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 2D/Time 2D.xlsx
+++ b/Time 2D/Time 2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4F8DED-4CDD-460A-A6FC-77FAFB984488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB8894D-ED99-44EB-94D4-1FC39E79DE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Попытка</t>
   </si>
@@ -61,6 +61,36 @@
   </si>
   <si>
     <t>500 итераций</t>
+  </si>
+  <si>
+    <t>GeForce 940MX</t>
+  </si>
+  <si>
+    <t>Имя устройства</t>
+  </si>
+  <si>
+    <t>860 МГц</t>
+  </si>
+  <si>
+    <t>Частота</t>
+  </si>
+  <si>
+    <t>Размер варпа</t>
+  </si>
+  <si>
+    <t>Количество мультипроцессоров</t>
+  </si>
+  <si>
+    <t>2.30 ГГц</t>
+  </si>
+  <si>
+    <t>Intel(R) Core(TM) i3-6100U</t>
+  </si>
+  <si>
+    <t>Количество ядер</t>
+  </si>
+  <si>
+    <t>Количество логических процессоров</t>
   </si>
 </sst>
 </file>
@@ -186,12 +216,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,13 +237,12 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -216,18 +251,24 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -245,6 +286,1321 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Ускорение производительности</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Фрактал Жюлиа 2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$42:$J$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$42,Sheet1!$E$42,Sheet1!$G$42,Sheet1!$I$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$43:$J$43</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$43,Sheet1!$E$43,Sheet1!$G$43,Sheet1!$I$43)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>18.690909090909091</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.983606557377051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.433427762039649</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.777219430485754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01F8-42FE-B9A5-343E9F22E61C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Фрактал Мандельброта 2D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$42:$J$42</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$42,Sheet1!$E$42,Sheet1!$G$42,Sheet1!$I$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$44:$J$44</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$44,Sheet1!$E$44,Sheet1!$G$44,Sheet1!$I$44)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>56.905660377358494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.412087912087927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.865013774104682</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.436274509803923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-01F8-42FE-B9A5-343E9F22E61C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="644204224"/>
+        <c:axId val="543870336"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="644204224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Сторона квадрата в пикселях для вычисления</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543870336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543870336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>на </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/ </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>время на </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GPU</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="644204224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>173940</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38275C1B-4D16-406A-80D6-1C076E22B9FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,388 +1866,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="21">
+        <v>2</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="21">
+        <v>4</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="22">
+        <v>32</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="22">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C11" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="16">
+      <c r="B12" s="13"/>
+      <c r="C12" s="5">
         <v>1000</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D12" s="5">
         <v>2000</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E12" s="5">
         <v>3000</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F12" s="5">
         <v>4000</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G12" s="6">
         <v>1000</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H12" s="6">
         <v>2000</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I12" s="6">
         <v>3000</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J12" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.5860000000000001</v>
-      </c>
-      <c r="G3" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J3" s="4">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.5920000000000001</v>
-      </c>
-      <c r="G4" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J4" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.591</v>
-      </c>
-      <c r="G5" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J5" s="4">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.5880000000000001</v>
-      </c>
-      <c r="G6" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.6E-2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.599</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J7" s="4">
-        <v>6.2E-2</v>
-      </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.89500000000000002</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.595</v>
-      </c>
-      <c r="G8" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="1">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.585</v>
-      </c>
-      <c r="G9" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="1">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.629</v>
-      </c>
-      <c r="G10" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J10" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="1">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.621</v>
-      </c>
-      <c r="G11" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H11" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="J11" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.104</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.40100000000000002</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="G12" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>5</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>0.30099999999999999</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="D13" s="2">
-        <v>1.1910000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="E13" s="2">
-        <v>2.6789999999999998</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="F13" s="2">
-        <v>4.7359999999999998</v>
+        <v>1.5860000000000001</v>
       </c>
       <c r="G13" s="4">
         <v>5.0000000000000001E-3</v>
@@ -900,118 +2109,118 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I13" s="4">
-        <v>3.9E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J13" s="4">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
       <c r="B14" s="1">
         <v>2</v>
       </c>
       <c r="C14" s="2">
-        <v>0.30099999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>1.1910000000000001</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="E14" s="2">
-        <v>2.669</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="F14" s="2">
-        <v>4.74</v>
+        <v>1.5920000000000001</v>
       </c>
       <c r="G14" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H14" s="4">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I14" s="4">
-        <v>3.5999999999999997E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J14" s="4">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" s="2">
-        <v>0.30199999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>1.2</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="E15" s="2">
-        <v>2.6680000000000001</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="F15" s="2">
-        <v>4.7430000000000003</v>
+        <v>1.591</v>
       </c>
       <c r="G15" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H15" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I15" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="J15" s="4">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
       <c r="B16" s="1">
         <v>4</v>
       </c>
       <c r="C16" s="2">
-        <v>0.30299999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D16" s="2">
-        <v>1.1910000000000001</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="E16" s="2">
-        <v>2.6739999999999999</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="F16" s="2">
-        <v>4.7380000000000004</v>
+        <v>1.5880000000000001</v>
       </c>
       <c r="G16" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H16" s="4">
-        <v>1.7999999999999999E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="I16" s="4">
-        <v>3.7999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="J16" s="4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
       <c r="B17" s="1">
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>0.30099999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D17" s="2">
-        <v>1.1910000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="E17" s="2">
-        <v>2.774</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="F17" s="2">
-        <v>4.7380000000000004</v>
+        <v>1.599</v>
       </c>
       <c r="G17" s="4">
         <v>5.0000000000000001E-3</v>
@@ -1023,25 +2232,26 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J17" s="4">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+        <v>6.2E-2</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
       <c r="B18" s="1">
         <v>6</v>
       </c>
       <c r="C18" s="2">
-        <v>0.30199999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>1.1870000000000001</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="E18" s="2">
-        <v>2.6659999999999999</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="F18" s="2">
-        <v>4.7300000000000004</v>
+        <v>1.595</v>
       </c>
       <c r="G18" s="4">
         <v>6.0000000000000001E-3</v>
@@ -1050,432 +2260,745 @@
         <v>1.9E-2</v>
       </c>
       <c r="I18" s="4">
-        <v>3.5999999999999997E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J18" s="4">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
       <c r="B19" s="1">
         <v>7</v>
       </c>
       <c r="C19" s="2">
-        <v>0.30099999999999999</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>1.1910000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="E19" s="2">
-        <v>2.6640000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="F19" s="2">
-        <v>4.7389999999999999</v>
+        <v>1.585</v>
       </c>
       <c r="G19" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H19" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I19" s="4">
-        <v>3.5999999999999997E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="J19" s="4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
       <c r="B20" s="1">
         <v>8</v>
       </c>
       <c r="C20" s="2">
-        <v>0.30299999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>1.1879999999999999</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="E20" s="2">
-        <v>2.6829999999999998</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="F20" s="2">
-        <v>4.74</v>
+        <v>1.629</v>
       </c>
       <c r="G20" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H20" s="4">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I20" s="4">
-        <v>3.5999999999999997E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="J20" s="4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
       <c r="B21" s="1">
         <v>9</v>
       </c>
       <c r="C21" s="2">
-        <v>0.3</v>
+        <v>0.104</v>
       </c>
       <c r="D21" s="2">
-        <v>1.1879999999999999</v>
+        <v>0.40400000000000003</v>
       </c>
       <c r="E21" s="2">
-        <v>2.67</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="F21" s="2">
-        <v>4.7480000000000002</v>
+        <v>1.621</v>
       </c>
       <c r="G21" s="4">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H21" s="4">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I21" s="4">
-        <v>3.5999999999999997E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="J21" s="4">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
       <c r="B22" s="1">
         <v>10</v>
       </c>
       <c r="C22" s="2">
-        <v>0.30199999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="D22" s="2">
-        <v>1.1870000000000001</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="E22" s="2">
-        <v>2.6659999999999999</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="F22" s="2">
-        <v>4.7389999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="G22" s="4">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H22" s="4">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I22" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J22" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.6789999999999998</v>
+      </c>
+      <c r="F23" s="2">
+        <v>4.7359999999999998</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H23" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3.9E-2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2.669</v>
+      </c>
+      <c r="F24" s="2">
+        <v>4.74</v>
+      </c>
+      <c r="G24" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I24" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J24" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="1">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2.6680000000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4.7430000000000003</v>
+      </c>
+      <c r="G25" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H25" s="4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J25" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="12"/>
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.6739999999999999</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4.7380000000000004</v>
+      </c>
+      <c r="G26" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J26" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="12"/>
+      <c r="B27" s="1">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.774</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4.7380000000000004</v>
+      </c>
+      <c r="G27" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J27" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="1">
         <v>6</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="C28" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="G28" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H28" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J28" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="12"/>
+      <c r="B29" s="1">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2.6640000000000001</v>
+      </c>
+      <c r="F29" s="2">
+        <v>4.7389999999999999</v>
+      </c>
+      <c r="G29" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I29" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="1">
+        <v>8</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2.6829999999999998</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4.74</v>
+      </c>
+      <c r="G30" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I30" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="12"/>
+      <c r="B31" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="8" t="s">
+      <c r="C31" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="F31" s="2">
+        <v>4.7480000000000002</v>
+      </c>
+      <c r="G31" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H31" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J31" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+      <c r="B32" s="1">
+        <v>10</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="F32" s="2">
+        <v>4.7389999999999999</v>
+      </c>
+      <c r="G32" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J32" s="4">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9" t="s">
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="16">
+      <c r="B36" s="15"/>
+      <c r="C36" s="5">
         <v>1000</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D36" s="5">
         <v>2000</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E36" s="5">
         <v>3000</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F36" s="5">
         <v>4000</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G36" s="6">
         <v>1000</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H36" s="6">
         <v>2000</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I36" s="6">
         <v>3000</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J36" s="6">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="2">
-        <f>AVERAGE(C3:C12)</f>
+      <c r="B37" s="12"/>
+      <c r="C37" s="2">
+        <f>AVERAGE(C13:C22)</f>
         <v>0.1028</v>
       </c>
-      <c r="D27" s="2">
-        <f t="shared" ref="D27:J27" si="0">AVERAGE(D3:D12)</f>
+      <c r="D37" s="2">
+        <f t="shared" ref="D37:J37" si="0">AVERAGE(D13:D22)</f>
         <v>0.40229999999999999</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E37" s="2">
         <f t="shared" si="0"/>
         <v>0.89779999999999993</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F37" s="2">
         <f t="shared" si="0"/>
         <v>1.5985999999999998</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G37" s="4">
         <f t="shared" si="0"/>
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H37" s="4">
         <f t="shared" si="0"/>
         <v>1.8299999999999997E-2</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I37" s="4">
         <f t="shared" si="0"/>
         <v>3.5300000000000012E-2</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J37" s="4">
         <f t="shared" si="0"/>
         <v>5.970000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="2">
-        <f>AVERAGE(C13:C22)</f>
+      <c r="B38" s="12"/>
+      <c r="C38" s="2">
+        <f>AVERAGE(C23:C32)</f>
         <v>0.30159999999999998</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" ref="D28:J28" si="1">AVERAGE(D13:D22)</f>
+      <c r="D38" s="2">
+        <f t="shared" ref="D38:J38" si="1">AVERAGE(D23:D32)</f>
         <v>1.1905000000000001</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>2.6812999999999998</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F38" s="2">
         <f t="shared" si="1"/>
         <v>4.7390999999999996</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G38" s="4">
         <f t="shared" si="1"/>
         <v>5.2999999999999992E-3</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H38" s="4">
         <f t="shared" si="1"/>
         <v>1.8199999999999997E-2</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I38" s="4">
         <f t="shared" si="1"/>
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J38" s="4">
         <f t="shared" si="1"/>
         <v>6.1199999999999991E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="7" t="s">
+      <c r="B41" s="14"/>
+      <c r="C41" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="14">
+      <c r="B42" s="15"/>
+      <c r="C42" s="19">
         <v>1000</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14">
+      <c r="D42" s="19"/>
+      <c r="E42" s="19">
         <v>2000</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14">
+      <c r="F42" s="19"/>
+      <c r="G42" s="19">
         <v>3000</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14">
+      <c r="H42" s="19"/>
+      <c r="I42" s="19">
         <v>4000</v>
       </c>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
+      <c r="J42" s="19"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="15">
-        <f>C27/G27</f>
+      <c r="B43" s="12"/>
+      <c r="C43" s="18">
+        <f>C37/G37</f>
         <v>18.690909090909091</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15">
-        <f>D27/H27</f>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18">
+        <f>D37/H37</f>
         <v>21.983606557377051</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15">
-        <f>E27/I27</f>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18">
+        <f>E37/I37</f>
         <v>25.433427762039649</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15">
-        <f>F27/J27</f>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18">
+        <f>F37/J37</f>
         <v>26.777219430485754</v>
       </c>
-      <c r="J33" s="15"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="15">
-        <f>C28/G28</f>
+      <c r="B44" s="12"/>
+      <c r="C44" s="18">
+        <f>C38/G38</f>
         <v>56.905660377358494</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15">
-        <f>D28/H28</f>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18">
+        <f>D38/H38</f>
         <v>65.412087912087927</v>
       </c>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15">
-        <f>E28/I28</f>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18">
+        <f>E38/I38</f>
         <v>73.865013774104682</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15">
-        <f>F28/J28</f>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18">
+        <f>F38/J38</f>
         <v>77.436274509803923</v>
       </c>
-      <c r="J34" s="15"/>
+      <c r="J44" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A29:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:J24"/>
+  <mergeCells count="40">
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="A39:J40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A33:J34"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:J11"/>
     <mergeCell ref="A13:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Time 2D/Time 2D.xlsx
+++ b/Time 2D/Time 2D.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB8894D-ED99-44EB-94D4-1FC39E79DE6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F9D35F-4FB8-4D34-A81C-F2B0B60B17B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Попытка</t>
   </si>
@@ -63,34 +63,34 @@
     <t>500 итераций</t>
   </si>
   <si>
-    <t>GeForce 940MX</t>
+    <t>OS</t>
   </si>
   <si>
-    <t>Имя устройства</t>
+    <t>GPU model</t>
   </si>
   <si>
-    <t>860 МГц</t>
+    <t>GDDR capacity</t>
   </si>
   <si>
-    <t>Частота</t>
+    <t>Windows 10 Home x64</t>
   </si>
   <si>
-    <t>Размер варпа</t>
+    <t>CPU model</t>
   </si>
   <si>
-    <t>Количество мультипроцессоров</t>
+    <t>RAM</t>
   </si>
   <si>
-    <t>2.30 ГГц</t>
+    <t>Nvidia GeForce 940MX</t>
   </si>
   <si>
-    <t>Intel(R) Core(TM) i3-6100U</t>
+    <t>Intel Core i3-6100U 2.30 GHz</t>
   </si>
   <si>
-    <t>Количество ядер</t>
+    <t>8 GB</t>
   </si>
   <si>
-    <t>Количество логических процессоров</t>
+    <t>2 GB</t>
   </si>
 </sst>
 </file>
@@ -188,7 +188,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -211,12 +211,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -234,19 +333,18 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,18 +355,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -368,7 +486,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$43</c:f>
+              <c:f>Sheet1!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -462,11 +580,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$42:$J$42</c15:sqref>
+                    <c15:sqref>Sheet1!$C$37:$J$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$C$42,Sheet1!$E$42,Sheet1!$G$42,Sheet1!$I$42)</c:f>
+              <c:f>(Sheet1!$C$37,Sheet1!$E$37,Sheet1!$G$37,Sheet1!$I$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -490,11 +608,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$43:$J$43</c15:sqref>
+                    <c15:sqref>Sheet1!$C$38:$J$38</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$C$43,Sheet1!$E$43,Sheet1!$G$43,Sheet1!$I$43)</c:f>
+              <c:f>(Sheet1!$C$38,Sheet1!$E$38,Sheet1!$G$38,Sheet1!$I$38)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -525,7 +643,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$44</c:f>
+              <c:f>Sheet1!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -619,11 +737,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$42:$J$42</c15:sqref>
+                    <c15:sqref>Sheet1!$C$37:$J$37</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$C$42,Sheet1!$E$42,Sheet1!$G$42,Sheet1!$I$42)</c:f>
+              <c:f>(Sheet1!$C$37,Sheet1!$E$37,Sheet1!$G$37,Sheet1!$I$37)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -647,11 +765,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$44:$J$44</c15:sqref>
+                    <c15:sqref>Sheet1!$C$39:$J$39</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$C$44,Sheet1!$E$44,Sheet1!$G$44,Sheet1!$I$44)</c:f>
+              <c:f>(Sheet1!$C$39,Sheet1!$E$39,Sheet1!$G$39,Sheet1!$I$39)</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1568,13 +1686,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>173940</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>38490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1866,10 +1984,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1877,350 +1995,400 @@
     <col min="1" max="1" width="33.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="21">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="6">
+        <v>3000</v>
+      </c>
+      <c r="J7" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="21">
+      <c r="C9" s="2">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.5920000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.591</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="22">
-        <v>32</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="22">
-        <v>4</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E12" s="5">
-        <v>3000</v>
-      </c>
-      <c r="F12" s="5">
-        <v>4000</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="6">
-        <v>3000</v>
-      </c>
-      <c r="J12" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="C11" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="G11" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.599</v>
+      </c>
+      <c r="G12" s="4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>6.2E-2</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2">
-        <v>0.10100000000000001</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>0.40100000000000002</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="E13" s="2">
-        <v>0.90300000000000002</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="F13" s="2">
-        <v>1.5860000000000001</v>
+        <v>1.595</v>
       </c>
       <c r="G13" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H13" s="4">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I13" s="4">
-        <v>3.7999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J13" s="4">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <v>0.10199999999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>0.40600000000000003</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="E14" s="2">
-        <v>0.89600000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="F14" s="2">
-        <v>1.5920000000000001</v>
+        <v>1.585</v>
       </c>
       <c r="G14" s="4">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="H14" s="4">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I14" s="4">
-        <v>3.7999999999999999E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="J14" s="4">
         <v>5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
       <c r="B15" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
         <v>0.10299999999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>0.40300000000000002</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="E15" s="2">
-        <v>0.90200000000000002</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="F15" s="2">
-        <v>1.591</v>
+        <v>1.629</v>
       </c>
       <c r="G15" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="1">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.104</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.621</v>
+      </c>
+      <c r="G16" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I15" s="4">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J15" s="4">
-        <v>6.3E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="1">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.5880000000000001</v>
-      </c>
-      <c r="G16" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1.6E-2</v>
       </c>
       <c r="I16" s="4">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="J16" s="4">
-        <v>6.2E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2">
-        <v>0.10299999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="D17" s="2">
         <v>0.40100000000000002</v>
       </c>
       <c r="E17" s="2">
-        <v>0.89600000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="F17" s="2">
-        <v>1.599</v>
+        <v>1.6</v>
       </c>
       <c r="G17" s="4">
         <v>5.0000000000000001E-3</v>
@@ -2232,116 +2400,117 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J17" s="4">
-        <v>6.2E-2</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="B18" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>0.10299999999999999</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>0.40300000000000002</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="E18" s="2">
-        <v>0.89500000000000002</v>
+        <v>2.6789999999999998</v>
       </c>
       <c r="F18" s="2">
-        <v>1.595</v>
+        <v>4.7359999999999998</v>
       </c>
       <c r="G18" s="4">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H18" s="4">
-        <v>1.9E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I18" s="4">
-        <v>3.5000000000000003E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J18" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
       <c r="B19" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C19" s="2">
-        <v>0.10199999999999999</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>0.40100000000000002</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="E19" s="2">
-        <v>0.89700000000000002</v>
+        <v>2.669</v>
       </c>
       <c r="F19" s="2">
-        <v>1.585</v>
+        <v>4.74</v>
       </c>
       <c r="G19" s="4">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H19" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I19" s="4">
-        <v>3.4000000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J19" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
       <c r="B20" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2">
-        <v>0.10299999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>0.40100000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="E20" s="2">
-        <v>0.89600000000000002</v>
+        <v>2.6680000000000001</v>
       </c>
       <c r="F20" s="2">
-        <v>1.629</v>
+        <v>4.7430000000000003</v>
       </c>
       <c r="G20" s="4">
-        <v>6.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H20" s="4">
-        <v>1.9E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="I20" s="4">
-        <v>3.4000000000000002E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J20" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
       <c r="B21" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
-        <v>0.104</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D21" s="2">
-        <v>0.40400000000000003</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="E21" s="2">
-        <v>0.89900000000000002</v>
+        <v>2.6739999999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>1.621</v>
+        <v>4.7380000000000004</v>
       </c>
       <c r="G21" s="4">
         <v>5.0000000000000001E-3</v>
@@ -2350,28 +2519,28 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="I21" s="4">
-        <v>3.4000000000000002E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J21" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
       <c r="B22" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
-        <v>0.104</v>
+        <v>0.30099999999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>0.40100000000000002</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="E22" s="2">
-        <v>0.89700000000000002</v>
+        <v>2.774</v>
       </c>
       <c r="F22" s="2">
-        <v>1.6</v>
+        <v>4.7380000000000004</v>
       </c>
       <c r="G22" s="4">
         <v>5.0000000000000001E-3</v>
@@ -2383,45 +2552,43 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J22" s="4">
-        <v>5.8000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>5</v>
-      </c>
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
       <c r="B23" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2">
-        <v>0.30099999999999999</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>1.1910000000000001</v>
+        <v>1.1870000000000001</v>
       </c>
       <c r="E23" s="2">
-        <v>2.6789999999999998</v>
+        <v>2.6659999999999999</v>
       </c>
       <c r="F23" s="2">
-        <v>4.7359999999999998</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="G23" s="4">
-        <v>5.0000000000000001E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H23" s="4">
-        <v>1.7999999999999999E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="I23" s="4">
-        <v>3.9E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J23" s="4">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
       <c r="B24" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2">
         <v>0.30099999999999999</v>
@@ -2430,10 +2597,10 @@
         <v>1.1910000000000001</v>
       </c>
       <c r="E24" s="2">
-        <v>2.669</v>
+        <v>2.6640000000000001</v>
       </c>
       <c r="F24" s="2">
-        <v>4.74</v>
+        <v>4.7389999999999999</v>
       </c>
       <c r="G24" s="4">
         <v>5.0000000000000001E-3</v>
@@ -2445,91 +2612,91 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="J24" s="4">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
       <c r="B25" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2">
-        <v>0.30199999999999999</v>
+        <v>0.30299999999999999</v>
       </c>
       <c r="D25" s="2">
-        <v>1.2</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="E25" s="2">
-        <v>2.6680000000000001</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="F25" s="2">
-        <v>4.7430000000000003</v>
+        <v>4.74</v>
       </c>
       <c r="G25" s="4">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H25" s="4">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="I25" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="J25" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="1">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2.67</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4.7480000000000002</v>
+      </c>
+      <c r="G26" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I26" s="4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J26" s="4">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="E26" s="2">
-        <v>2.6739999999999999</v>
-      </c>
-      <c r="F26" s="2">
-        <v>4.7380000000000004</v>
-      </c>
-      <c r="G26" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H26" s="4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="1">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.6659999999999999</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4.7389999999999999</v>
+      </c>
+      <c r="G27" s="4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H27" s="4">
         <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I26" s="4">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="1">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="D27" s="2">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2.774</v>
-      </c>
-      <c r="F27" s="2">
-        <v>4.7380000000000004</v>
-      </c>
-      <c r="G27" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H27" s="4">
-        <v>1.9E-2</v>
       </c>
       <c r="I27" s="4">
         <v>3.5000000000000003E-2</v>
@@ -2538,464 +2705,309 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="1">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="2">
-        <v>0.30199999999999999</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2.6659999999999999</v>
-      </c>
-      <c r="F28" s="2">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="G28" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H28" s="4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I28" s="4">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J28" s="4">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="1">
-        <v>7</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.30099999999999999</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="E29" s="2">
-        <v>2.6640000000000001</v>
-      </c>
-      <c r="F29" s="2">
-        <v>4.7389999999999999</v>
-      </c>
-      <c r="G29" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I29" s="4">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J29" s="4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="1">
-        <v>8</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.30299999999999999</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1.1879999999999999</v>
-      </c>
-      <c r="E30" s="2">
-        <v>2.6829999999999998</v>
-      </c>
-      <c r="F30" s="2">
-        <v>4.74</v>
-      </c>
-      <c r="G30" s="4">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H30" s="4">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="I30" s="4">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J30" s="4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="1">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1.1879999999999999</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2.67</v>
-      </c>
-      <c r="F31" s="2">
-        <v>4.7480000000000002</v>
-      </c>
-      <c r="G31" s="4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H31" s="4">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I31" s="4">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="J31" s="4">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="1">
-        <v>10</v>
-      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D31" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F31" s="5">
+        <v>4000</v>
+      </c>
+      <c r="G31" s="6">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I31" s="6">
+        <v>3000</v>
+      </c>
+      <c r="J31" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="13"/>
       <c r="C32" s="2">
-        <v>0.30199999999999999</v>
+        <f>AVERAGE(C8:C17)</f>
+        <v>0.1028</v>
       </c>
       <c r="D32" s="2">
-        <v>1.1870000000000001</v>
+        <f t="shared" ref="D32:J32" si="0">AVERAGE(D8:D17)</f>
+        <v>0.40229999999999999</v>
       </c>
       <c r="E32" s="2">
-        <v>2.6659999999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.89779999999999993</v>
       </c>
       <c r="F32" s="2">
-        <v>4.7389999999999999</v>
+        <f t="shared" si="0"/>
+        <v>1.5985999999999998</v>
       </c>
       <c r="G32" s="4">
-        <v>6.0000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="H32" s="4">
-        <v>1.7999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.8299999999999997E-2</v>
       </c>
       <c r="I32" s="4">
-        <v>3.5000000000000003E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.5300000000000012E-2</v>
       </c>
       <c r="J32" s="4">
-        <v>6.0999999999999999E-2</v>
+        <f t="shared" si="0"/>
+        <v>5.970000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="15"/>
-      <c r="C36" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D36" s="5">
-        <v>2000</v>
-      </c>
-      <c r="E36" s="5">
-        <v>3000</v>
-      </c>
-      <c r="F36" s="5">
-        <v>4000</v>
-      </c>
-      <c r="G36" s="6">
-        <v>1000</v>
-      </c>
-      <c r="H36" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I36" s="6">
-        <v>3000</v>
-      </c>
-      <c r="J36" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="2">
-        <f>AVERAGE(C13:C22)</f>
-        <v>0.1028</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" ref="D37:J37" si="0">AVERAGE(D13:D22)</f>
-        <v>0.40229999999999999</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="0"/>
-        <v>0.89779999999999993</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="0"/>
-        <v>1.5985999999999998</v>
-      </c>
-      <c r="G37" s="4">
-        <f t="shared" si="0"/>
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="H37" s="4">
-        <f t="shared" si="0"/>
-        <v>1.8299999999999997E-2</v>
-      </c>
-      <c r="I37" s="4">
-        <f t="shared" si="0"/>
-        <v>3.5300000000000012E-2</v>
-      </c>
-      <c r="J37" s="4">
-        <f t="shared" si="0"/>
-        <v>5.970000000000001E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="2">
-        <f>AVERAGE(C23:C32)</f>
+      <c r="C33" s="2">
+        <f>AVERAGE(C18:C27)</f>
         <v>0.30159999999999998</v>
       </c>
-      <c r="D38" s="2">
-        <f t="shared" ref="D38:J38" si="1">AVERAGE(D23:D32)</f>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33:J33" si="1">AVERAGE(D18:D27)</f>
         <v>1.1905000000000001</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>2.6812999999999998</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F33" s="2">
         <f t="shared" si="1"/>
         <v>4.7390999999999996</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G33" s="4">
         <f t="shared" si="1"/>
         <v>5.2999999999999992E-3</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H33" s="4">
         <f t="shared" si="1"/>
         <v>1.8199999999999997E-2</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I33" s="4">
         <f t="shared" si="1"/>
         <v>3.6299999999999999E-2</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J33" s="4">
         <f t="shared" si="1"/>
         <v>6.1199999999999991E-2</v>
       </c>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="11"/>
+      <c r="C36" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="19"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9">
+        <v>3000</v>
+      </c>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="10">
+        <f>C32/G32</f>
+        <v>18.690909090909091</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10">
+        <f>D32/H32</f>
+        <v>21.983606557377051</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10">
+        <f>E32/I32</f>
+        <v>25.433427762039649</v>
+      </c>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10">
+        <f>F32/J32</f>
+        <v>26.777219430485754</v>
+      </c>
+      <c r="J38" s="10"/>
+    </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="19">
-        <v>1000</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19">
-        <v>2000</v>
-      </c>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19">
-        <v>3000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19">
-        <v>4000</v>
-      </c>
-      <c r="J42" s="19"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="18">
-        <f>C37/G37</f>
-        <v>18.690909090909091</v>
-      </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18">
-        <f>D37/H37</f>
-        <v>21.983606557377051</v>
-      </c>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18">
-        <f>E37/I37</f>
-        <v>25.433427762039649</v>
-      </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18">
-        <f>F37/J37</f>
-        <v>26.777219430485754</v>
-      </c>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="18">
-        <f>C38/G38</f>
+      <c r="C39" s="10">
+        <f>C33/G33</f>
         <v>56.905660377358494</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18">
-        <f>D38/H38</f>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10">
+        <f>D33/H33</f>
         <v>65.412087912087927</v>
       </c>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18">
-        <f>E38/I38</f>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10">
+        <f>E33/I33</f>
         <v>73.865013774104682</v>
       </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18">
-        <f>F38/J38</f>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10">
+        <f>F33/J33</f>
         <v>77.436274509803923</v>
       </c>
-      <c r="J44" s="18"/>
+      <c r="J39" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="A39:J40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
+  <mergeCells count="35">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="A28:J29"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A34:J35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:J35"/>
     <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A33:J34"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A32:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
